--- a/data/Vergleich.xlsx
+++ b/data/Vergleich.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\PycharmProjects\Forecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BD2734-4F44-4CE4-BDBB-D20B8FA64404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4CCE3F-15F0-409C-964D-FBF489602894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BD0E932-1F2B-4F8F-B3F8-6DF366B9EB8C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3BD0E932-1F2B-4F8F-B3F8-6DF366B9EB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>RMSE</t>
   </si>
@@ -149,15 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,6 +167,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4759,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701D0C11-3EAB-4240-B176-5704584517D4}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,21 +4785,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -4826,914 +4831,914 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>3.347845</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>4.4903079999999997</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2.5554420000000002</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>3.3648340000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>4.5481020000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>2.5695939999999999</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>1</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>2.464909</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>3.2201780000000002</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="3">
         <v>1.8355349999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>4.2150290000000004</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>5.6659700000000006</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>3.1968580000000002</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>4.3973250000000004</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>5.9616280000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>3.3406660000000001</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>3.6585749999999999</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>4.8864320000000001</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>2.7724600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>4.9589040000000004</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>6.7250519999999998</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>3.7826610000000001</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>5.1618690000000003</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>7.0588620000000004</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>3.9364710000000001</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>3</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>4.4607479999999997</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>6.0222129999999998</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>3.3855330000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>5.5417149999999999</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>7.5641119999999997</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>4.238391</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>5.6979179999999996</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>7.8381759999999998</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>4.3545360000000004</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>4</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>5.0088290000000004</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>6.8160920000000003</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="3">
         <v>3.801914</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>5.9792589999999999</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>8.200177</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>4.5687579999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>6.0695009999999998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>8.3946889999999996</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>4.6356909999999996</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>5.372935</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>7.3378880000000004</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>4.0708130000000002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>6.3235609999999998</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>8.7063330000000008</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>4.8273789999999996</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>6.3387700000000002</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>8.8121670000000005</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>4.8364120000000002</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>6</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>5.6277270000000001</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>7.7220550000000001</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>4.2612889999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>6.6007830000000007</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>9.1036039999999989</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>5.0274739999999998</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>7</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>6.5413649999999999</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>9.1096590000000006</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>4.9724659999999998</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>7</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>5.8040900000000004</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>7.9916539999999996</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>4.3837739999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>6.8178239999999999</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>9.4372990000000012</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>5.189362</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>8</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>6.7032569999999998</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>9.3378409999999992</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>5.0713309999999998</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>8</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>5.9288740000000004</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>8.1678239999999995</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>4.4512029999999996</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>6.9922520000000006</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>9.721012</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>5.3209170000000006</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>9</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>6.8543890000000003</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>9.5497350000000001</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>5.1596349999999997</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>9</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>6.0377159999999996</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>8.3597020000000004</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="3">
         <v>4.5187379999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>7.135751</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>9.9586249999999996</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>5.4314590000000003</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>10</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>7.0070389999999998</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>9.7732600000000005</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>5.2602859999999998</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>10</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>6.1606480000000001</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>8.5606109999999997</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>4.5942699999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>7.2624049999999993</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>10.147311</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>5.5200680000000002</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>11</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>7.1663329999999998</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>9.9981930000000006</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>5.3720280000000002</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>11</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <v>6.3133720000000002</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <v>8.8118320000000008</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>4.7044860000000002</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>7.3754960000000001</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>10.312571999999999</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>5.5997380000000003</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>12</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>7.3229499999999996</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>10.221736999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>5.4912939999999999</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>12</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <v>6.4810619999999997</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>9.0725999999999996</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>4.8299630000000002</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>7.4708249999999996</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>10.424286</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>5.6518999999999995</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>13</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>7.4599529999999996</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>10.404026</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>5.5941029999999996</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>13</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="4">
         <v>6.6414850000000003</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>9.32165</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>4.9539179999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>7.5528680000000001</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>10.520439</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>5.6978599999999995</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>14</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>7.5743929999999997</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>10.572528999999999</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>5.6923190000000004</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>14</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="4">
         <v>6.788144</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="3">
         <v>9.5366210000000002</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <v>5.0708450000000003</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>7.6167240000000005</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>10.613145000000001</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>5.7411820000000002</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>15</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>7.6663779999999999</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>10.715878</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>5.772659</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>15</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>6.899267</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="3">
         <v>9.7061820000000001</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="3">
         <v>5.1695140000000004</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>7.6585489999999998</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>10.689536</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>5.7767359999999996</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>16</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>7.7398879999999997</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>10.839366</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <v>5.8396819999999998</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>16</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="4">
         <v>6.9778440000000002</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="3">
         <v>9.8321109999999994</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="3">
         <v>5.24939</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>7.6854809999999993</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>10.758058</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>5.8062529999999999</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>17</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>7.799639</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>10.933187999999999</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>5.8899520000000001</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>17</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="4">
         <v>7.0522330000000002</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="3">
         <v>9.9449170000000002</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="3">
         <v>5.3266200000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>7.698569</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>10.817487999999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>5.824954</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>18</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <v>7.8439430000000003</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>10.997515999999999</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>5.9237719999999996</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <v>18</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="4">
         <v>7.1315150000000003</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="3">
         <v>10.064249</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="3">
         <v>5.4052290000000003</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>7.6964329999999999</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>10.838556000000001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>5.8280789999999998</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>19</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>7.8734919999999997</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>11.024778</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="3">
         <v>5.9383290000000004</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>19</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="4">
         <v>7.2003830000000004</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="3">
         <v>10.156278</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="3">
         <v>5.4636550000000002</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>7.6767709999999996</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>10.836255999999999</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>5.8208590000000004</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>20</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>7.8929739999999997</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>11.03431</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="3">
         <v>5.9442360000000001</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>20</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="4">
         <v>7.2497170000000004</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="3">
         <v>10.226685</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="3">
         <v>5.4976849999999997</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>7.6482290000000006</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>10.805672000000001</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>5.8013019999999997</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>21</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="4">
         <v>7.9032669999999996</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>11.024697</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="3">
         <v>5.9423700000000004</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>21</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="4">
         <v>7.2858549999999997</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="3">
         <v>10.265838</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="3">
         <v>5.5050939999999997</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>7.6365559999999997</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>10.792924999999999</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>5.793094</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>22</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>7.9168589999999996</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>11.027213</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="3">
         <v>5.9473279999999997</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <v>22</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <v>7.3198379999999998</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="3">
         <v>10.288074999999999</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="3">
         <v>5.4985350000000004</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>7.6576130000000004</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>10.833249</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>5.8177139999999996</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>23</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <v>7.9539030000000004</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>11.075219000000001</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="3">
         <v>5.9752520000000002</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <v>23</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <v>7.3567140000000002</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="3">
         <v>10.330292999999999</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="3">
         <v>5.503234</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>7.7388130000000004</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>10.949845999999999</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>5.8877329999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>24</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>8.0451130000000006</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>11.218582</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="3">
         <v>6.057639</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <v>24</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="4">
         <v>7.4233320000000003</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="3">
         <v>10.4373</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="3">
         <v>5.5461549999999997</v>
       </c>
     </row>
@@ -5747,4 +5752,380 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDF5888-A033-4AE6-B81B-4C4C8FB00A3E}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.7419790000000002</v>
+      </c>
+      <c r="C3">
+        <v>3.5519889999999998</v>
+      </c>
+      <c r="D3">
+        <v>2.0021439999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.9840080000000002</v>
+      </c>
+      <c r="C4">
+        <v>5.3545100000000003</v>
+      </c>
+      <c r="D4">
+        <v>3.0603129999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.7093189999999998</v>
+      </c>
+      <c r="C5">
+        <v>6.3734570000000001</v>
+      </c>
+      <c r="D5">
+        <v>3.606989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5.3269130000000002</v>
+      </c>
+      <c r="C6">
+        <v>7.309291</v>
+      </c>
+      <c r="D6">
+        <v>4.1414429999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5.739992</v>
+      </c>
+      <c r="C7">
+        <v>7.9465760000000003</v>
+      </c>
+      <c r="D7">
+        <v>4.4884690000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6.0451990000000002</v>
+      </c>
+      <c r="C8">
+        <v>8.4106830000000006</v>
+      </c>
+      <c r="D8">
+        <v>4.7264609999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6.2836439999999998</v>
+      </c>
+      <c r="C9">
+        <v>8.7880939999999992</v>
+      </c>
+      <c r="D9">
+        <v>4.9252669999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6.4899009999999997</v>
+      </c>
+      <c r="C10">
+        <v>9.1118989999999993</v>
+      </c>
+      <c r="D10">
+        <v>5.1010340000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6.6836349999999998</v>
+      </c>
+      <c r="C11">
+        <v>9.4354849999999999</v>
+      </c>
+      <c r="D11">
+        <v>5.2749370000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6.8641540000000001</v>
+      </c>
+      <c r="C12">
+        <v>9.726051</v>
+      </c>
+      <c r="D12">
+        <v>5.4349860000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7.0360189999999996</v>
+      </c>
+      <c r="C13">
+        <v>10.003569000000001</v>
+      </c>
+      <c r="D13">
+        <v>5.5873689999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7.1979649999999999</v>
+      </c>
+      <c r="C14">
+        <v>10.278675</v>
+      </c>
+      <c r="D14">
+        <v>5.7350050000000001</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>7.3430220000000004</v>
+      </c>
+      <c r="C15">
+        <v>10.482191</v>
+      </c>
+      <c r="D15">
+        <v>5.8472189999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7.469017</v>
+      </c>
+      <c r="C16">
+        <v>10.636601000000001</v>
+      </c>
+      <c r="D16">
+        <v>5.9333520000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>7.5603670000000003</v>
+      </c>
+      <c r="C17">
+        <v>10.752699</v>
+      </c>
+      <c r="D17">
+        <v>5.9908219999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>7.6216169999999996</v>
+      </c>
+      <c r="C18">
+        <v>10.852299</v>
+      </c>
+      <c r="D18">
+        <v>6.0329519999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>7.6643699999999999</v>
+      </c>
+      <c r="C19">
+        <v>10.929549</v>
+      </c>
+      <c r="D19">
+        <v>6.0637129999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7.6900139999999997</v>
+      </c>
+      <c r="C20">
+        <v>10.982792</v>
+      </c>
+      <c r="D20">
+        <v>6.0809749999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7.6970970000000003</v>
+      </c>
+      <c r="C21">
+        <v>10.989587</v>
+      </c>
+      <c r="D21">
+        <v>6.0744579999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>7.6858000000000004</v>
+      </c>
+      <c r="C22">
+        <v>10.963206</v>
+      </c>
+      <c r="D22">
+        <v>6.050281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>7.661473</v>
+      </c>
+      <c r="C23">
+        <v>10.923253000000001</v>
+      </c>
+      <c r="D23">
+        <v>6.0102979999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7.6404990000000002</v>
+      </c>
+      <c r="C24">
+        <v>10.880986</v>
+      </c>
+      <c r="D24">
+        <v>5.9574819999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7.6416170000000001</v>
+      </c>
+      <c r="C25">
+        <v>10.84873</v>
+      </c>
+      <c r="D25">
+        <v>5.9072259999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>7.7186830000000004</v>
+      </c>
+      <c r="C26">
+        <v>10.920335</v>
+      </c>
+      <c r="D26">
+        <v>5.9195890000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/Vergleich.xlsx
+++ b/data/Vergleich.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\PycharmProjects\Forecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4CCE3F-15F0-409C-964D-FBF489602894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD316D56-3140-4504-87D5-E204FB456D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3BD0E932-1F2B-4F8F-B3F8-6DF366B9EB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Price only" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>RMSE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Book Translation Model</t>
+  </si>
+  <si>
+    <t>VAE</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +112,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,11 +155,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,6 +191,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -176,7 +204,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4785,21 +4824,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -5756,22 +5795,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDF5888-A033-4AE6-B81B-4C4C8FB00A3E}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5781,9 +5831,18 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5795,9 +5854,21 @@
       <c r="D3">
         <v>2.0021439999999999</v>
       </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>2800448</v>
+      </c>
+      <c r="I3" s="12">
+        <v>3668885</v>
+      </c>
+      <c r="J3" s="12">
+        <v>2070513</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4">
@@ -5809,9 +5880,21 @@
       <c r="D4">
         <v>3.0603129999999998</v>
       </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3774848</v>
+      </c>
+      <c r="I4" s="14">
+        <v>4981270</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2761387</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5">
@@ -5823,9 +5906,21 @@
       <c r="D5">
         <v>3.606989</v>
       </c>
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>4523706</v>
+      </c>
+      <c r="I5" s="12">
+        <v>6046980</v>
+      </c>
+      <c r="J5" s="12">
+        <v>3327022</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6">
@@ -5837,9 +5932,21 @@
       <c r="D6">
         <v>4.1414429999999998</v>
       </c>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14">
+        <v>5053011</v>
+      </c>
+      <c r="I6" s="14">
+        <v>6809794</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3731584</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7">
@@ -5851,9 +5958,21 @@
       <c r="D7">
         <v>4.4884690000000003</v>
       </c>
+      <c r="G7" s="11">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12">
+        <v>5360793</v>
+      </c>
+      <c r="I7" s="12">
+        <v>7264954</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3955964</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8">
@@ -5865,9 +5984,21 @@
       <c r="D8">
         <v>4.7264609999999996</v>
       </c>
+      <c r="G8" s="13">
+        <v>5</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5570776</v>
+      </c>
+      <c r="I8" s="14">
+        <v>7596190</v>
+      </c>
+      <c r="J8" s="14">
+        <v>4107112</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9">
@@ -5879,9 +6010,21 @@
       <c r="D9">
         <v>4.9252669999999998</v>
       </c>
+      <c r="G9" s="11">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12">
+        <v>5755650</v>
+      </c>
+      <c r="I9" s="12">
+        <v>7861805</v>
+      </c>
+      <c r="J9" s="12">
+        <v>4233843</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10">
@@ -5893,9 +6036,21 @@
       <c r="D10">
         <v>5.1010340000000003</v>
       </c>
+      <c r="G10" s="13">
+        <v>7</v>
+      </c>
+      <c r="H10" s="14">
+        <v>5929663</v>
+      </c>
+      <c r="I10" s="14">
+        <v>8154563</v>
+      </c>
+      <c r="J10" s="14">
+        <v>4372196</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11">
@@ -5907,9 +6062,21 @@
       <c r="D11">
         <v>5.2749370000000004</v>
       </c>
+      <c r="G11" s="11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12">
+        <v>6097267</v>
+      </c>
+      <c r="I11" s="12">
+        <v>8479590</v>
+      </c>
+      <c r="J11" s="12">
+        <v>4519052</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12">
@@ -5921,9 +6088,21 @@
       <c r="D12">
         <v>5.4349860000000003</v>
       </c>
+      <c r="G12" s="13">
+        <v>9</v>
+      </c>
+      <c r="H12" s="14">
+        <v>6249809</v>
+      </c>
+      <c r="I12" s="14">
+        <v>8778341</v>
+      </c>
+      <c r="J12" s="14">
+        <v>4646819</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13">
@@ -5935,9 +6114,21 @@
       <c r="D13">
         <v>5.5873689999999998</v>
       </c>
+      <c r="G13" s="11">
+        <v>10</v>
+      </c>
+      <c r="H13" s="12">
+        <v>6392203</v>
+      </c>
+      <c r="I13" s="12">
+        <v>9052745</v>
+      </c>
+      <c r="J13" s="12">
+        <v>4763503</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14">
@@ -5949,12 +6140,21 @@
       <c r="D14">
         <v>5.7350050000000001</v>
       </c>
-      <c r="I14">
-        <v>1</v>
+      <c r="G14" s="13">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14">
+        <v>6525291</v>
+      </c>
+      <c r="I14" s="14">
+        <v>9284182</v>
+      </c>
+      <c r="J14" s="14">
+        <v>4859387</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15">
@@ -5966,9 +6166,21 @@
       <c r="D15">
         <v>5.8472189999999999</v>
       </c>
+      <c r="G15" s="11">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12">
+        <v>6647803</v>
+      </c>
+      <c r="I15" s="12">
+        <v>9451929</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4925772</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16">
@@ -5980,9 +6192,21 @@
       <c r="D16">
         <v>5.9333520000000002</v>
       </c>
+      <c r="G16" s="13">
+        <v>13</v>
+      </c>
+      <c r="H16" s="14">
+        <v>6765852</v>
+      </c>
+      <c r="I16" s="14">
+        <v>9604660</v>
+      </c>
+      <c r="J16" s="14">
+        <v>4991013</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17">
@@ -5994,9 +6218,21 @@
       <c r="D17">
         <v>5.9908219999999996</v>
       </c>
+      <c r="G17" s="11">
+        <v>14</v>
+      </c>
+      <c r="H17" s="12">
+        <v>6852717</v>
+      </c>
+      <c r="I17" s="12">
+        <v>9727063</v>
+      </c>
+      <c r="J17" s="12">
+        <v>5046403</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18">
@@ -6008,9 +6244,21 @@
       <c r="D18">
         <v>6.0329519999999999</v>
       </c>
+      <c r="G18" s="13">
+        <v>15</v>
+      </c>
+      <c r="H18" s="14">
+        <v>6902666</v>
+      </c>
+      <c r="I18" s="14">
+        <v>9803644</v>
+      </c>
+      <c r="J18" s="14">
+        <v>5076619</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19">
@@ -6022,9 +6270,21 @@
       <c r="D19">
         <v>6.0637129999999999</v>
       </c>
+      <c r="G19" s="11">
+        <v>16</v>
+      </c>
+      <c r="H19" s="12">
+        <v>6936628</v>
+      </c>
+      <c r="I19" s="12">
+        <v>9860949</v>
+      </c>
+      <c r="J19" s="12">
+        <v>5098993</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20">
@@ -6036,9 +6296,21 @@
       <c r="D20">
         <v>6.0809749999999996</v>
       </c>
+      <c r="G20" s="13">
+        <v>17</v>
+      </c>
+      <c r="H20" s="14">
+        <v>6972017</v>
+      </c>
+      <c r="I20" s="14">
+        <v>9927800</v>
+      </c>
+      <c r="J20" s="14">
+        <v>5122481</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21">
@@ -6050,9 +6322,21 @@
       <c r="D21">
         <v>6.0744579999999999</v>
       </c>
+      <c r="G21" s="11">
+        <v>18</v>
+      </c>
+      <c r="H21" s="12">
+        <v>7022243</v>
+      </c>
+      <c r="I21" s="12">
+        <v>10019239</v>
+      </c>
+      <c r="J21" s="12">
+        <v>5157733</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22">
@@ -6064,9 +6348,21 @@
       <c r="D22">
         <v>6.050281</v>
       </c>
+      <c r="G22" s="13">
+        <v>19</v>
+      </c>
+      <c r="H22" s="14">
+        <v>7079772</v>
+      </c>
+      <c r="I22" s="14">
+        <v>10105213</v>
+      </c>
+      <c r="J22" s="14">
+        <v>5195713</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23">
@@ -6078,9 +6374,21 @@
       <c r="D23">
         <v>6.0102979999999997</v>
       </c>
+      <c r="G23" s="11">
+        <v>20</v>
+      </c>
+      <c r="H23" s="12">
+        <v>7124284</v>
+      </c>
+      <c r="I23" s="12">
+        <v>10159839</v>
+      </c>
+      <c r="J23" s="12">
+        <v>5220715</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24">
@@ -6092,9 +6400,21 @@
       <c r="D24">
         <v>5.9574819999999997</v>
       </c>
+      <c r="G24" s="13">
+        <v>21</v>
+      </c>
+      <c r="H24" s="14">
+        <v>7149767</v>
+      </c>
+      <c r="I24" s="14">
+        <v>10195477</v>
+      </c>
+      <c r="J24" s="14">
+        <v>5237001</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25">
@@ -6106,9 +6426,21 @@
       <c r="D25">
         <v>5.9072259999999996</v>
       </c>
+      <c r="G25" s="11">
+        <v>22</v>
+      </c>
+      <c r="H25" s="12">
+        <v>7160635</v>
+      </c>
+      <c r="I25" s="12">
+        <v>10207827</v>
+      </c>
+      <c r="J25" s="12">
+        <v>5233479</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26">
@@ -6120,10 +6452,23 @@
       <c r="D26">
         <v>5.9195890000000002</v>
       </c>
+      <c r="G26" s="13">
+        <v>23</v>
+      </c>
+      <c r="H26" s="14">
+        <v>7220283</v>
+      </c>
+      <c r="I26" s="14">
+        <v>10300259</v>
+      </c>
+      <c r="J26" s="14">
+        <v>5271185</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
